--- a/example_data/EPA/label_corrected/000264-01198-20180515_2018-12-07_203156.xlsx
+++ b/example_data/EPA/label_corrected/000264-01198-20180515_2018-12-07_203156.xlsx
@@ -821,7 +821,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G282" t="inlineStr"/>
